--- a/data_year/zb/运输和邮电/私人汽车拥有量.xlsx
+++ b/data_year/zb/运输和邮电/私人汽车拥有量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,869 +498,543 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>61</v>
+      </c>
+      <c r="C2" t="n">
+        <v>140.522</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.6883</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9.3399</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4593.462</v>
+      </c>
+      <c r="G2" t="n">
+        <v>325.702</v>
+      </c>
+      <c r="H2" t="n">
+        <v>16.7826</v>
+      </c>
       <c r="I2" t="n">
-        <v>625.33</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>5938.708</v>
+      </c>
+      <c r="J2" t="n">
+        <v>632.7717</v>
+      </c>
       <c r="K2" t="n">
-        <v>365.09</v>
+        <v>4989.5039</v>
       </c>
       <c r="L2" t="n">
-        <v>259.09</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+        <v>931.5158</v>
+      </c>
+      <c r="M2" t="n">
+        <v>141.4395</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>62.3368</v>
+      </c>
+      <c r="C3" t="n">
+        <v>144.5205</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.8985</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9.993600000000001</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5823.616</v>
+      </c>
+      <c r="G3" t="n">
+        <v>341.5165</v>
+      </c>
+      <c r="H3" t="n">
+        <v>14.2351</v>
+      </c>
       <c r="I3" t="n">
-        <v>770.78</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>7326.7938</v>
+      </c>
+      <c r="J3" t="n">
+        <v>744.3934</v>
+      </c>
       <c r="K3" t="n">
-        <v>469.85</v>
+        <v>6237.4629</v>
       </c>
       <c r="L3" t="n">
-        <v>298.95</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>1067.4324</v>
+      </c>
+      <c r="M3" t="n">
+        <v>164.2834</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35.87</v>
+        <v>55.4264</v>
       </c>
       <c r="C4" t="n">
-        <v>84.40000000000001</v>
+        <v>128.5123</v>
       </c>
       <c r="D4" t="n">
-        <v>3.94</v>
+        <v>25.0944</v>
       </c>
       <c r="E4" t="n">
-        <v>9.890000000000001</v>
+        <v>8.2584</v>
       </c>
       <c r="F4" t="n">
-        <v>408.49</v>
+        <v>7226.4828</v>
       </c>
       <c r="G4" t="n">
-        <v>169.51</v>
+        <v>347.7067</v>
       </c>
       <c r="H4" t="n">
-        <v>49.95</v>
+        <v>11.345</v>
       </c>
       <c r="I4" t="n">
-        <v>968.98</v>
+        <v>8838.6014</v>
       </c>
       <c r="J4" t="n">
-        <v>158.67</v>
+        <v>867.6409</v>
       </c>
       <c r="K4" t="n">
-        <v>623.76</v>
+        <v>7637.8743</v>
       </c>
       <c r="L4" t="n">
-        <v>341.29</v>
+        <v>1175.6327</v>
       </c>
       <c r="M4" t="n">
-        <v>48.27</v>
+        <v>168.1345</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42.5149</v>
+        <v>46.9486</v>
       </c>
       <c r="C5" t="n">
-        <v>95.20350000000001</v>
+        <v>111.8482</v>
       </c>
       <c r="D5" t="n">
-        <v>6.0012</v>
+        <v>27.9548</v>
       </c>
       <c r="E5" t="n">
-        <v>7.3566</v>
+        <v>6.9476</v>
       </c>
       <c r="F5" t="n">
-        <v>586.9018</v>
+        <v>8810.507</v>
       </c>
       <c r="G5" t="n">
-        <v>209.1006</v>
+        <v>333.8313</v>
       </c>
       <c r="H5" t="n">
-        <v>51.0938</v>
+        <v>10.5198</v>
       </c>
       <c r="I5" t="n">
-        <v>1219.23</v>
+        <v>10501.6827</v>
       </c>
       <c r="J5" t="n">
-        <v>176.5821</v>
+        <v>978.7336</v>
       </c>
       <c r="K5" t="n">
-        <v>845.87</v>
+        <v>9198.2345</v>
       </c>
       <c r="L5" t="n">
-        <v>367.35</v>
+        <v>1275.4934</v>
       </c>
       <c r="M5" t="n">
-        <v>44.4738</v>
+        <v>174.3918</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46.9513</v>
+        <v>42.1036</v>
       </c>
       <c r="C6" t="n">
-        <v>94.6943</v>
+        <v>104.9025</v>
       </c>
       <c r="D6" t="n">
-        <v>9.1539</v>
+        <v>41.1996</v>
       </c>
       <c r="E6" t="n">
-        <v>7.1992</v>
+        <v>7.7026</v>
       </c>
       <c r="F6" t="n">
-        <v>786.6307</v>
+        <v>10590.7534</v>
       </c>
       <c r="G6" t="n">
-        <v>228.9101</v>
+        <v>304.8255</v>
       </c>
       <c r="H6" t="n">
-        <v>50.8705</v>
+        <v>14.5937</v>
       </c>
       <c r="I6" t="n">
-        <v>1481.6611</v>
+        <v>12339.3597</v>
       </c>
       <c r="J6" t="n">
-        <v>203.8523</v>
+        <v>1050.6024</v>
       </c>
       <c r="K6" t="n">
-        <v>1069.6913</v>
+        <v>10945.3851</v>
       </c>
       <c r="L6" t="n">
-        <v>402.8159</v>
+        <v>1352.775</v>
       </c>
       <c r="M6" t="n">
-        <v>53.3988</v>
+        <v>182.6764</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50.8757</v>
+        <v>28.8896</v>
       </c>
       <c r="C7" t="n">
-        <v>100.3379</v>
+        <v>86.61669999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>12.0353</v>
+        <v>31.2247</v>
       </c>
       <c r="E7" t="n">
-        <v>7.6102</v>
+        <v>8.267300000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>1079.7806</v>
+        <v>12432.2579</v>
       </c>
       <c r="G7" t="n">
-        <v>245.6585</v>
+        <v>267.8138</v>
       </c>
       <c r="H7" t="n">
-        <v>45.9782</v>
+        <v>9.4687</v>
       </c>
       <c r="I7" t="n">
-        <v>1848.0663</v>
+        <v>14099.1037</v>
       </c>
       <c r="J7" t="n">
-        <v>243.2869</v>
+        <v>1060.7025</v>
       </c>
       <c r="K7" t="n">
-        <v>1383.925</v>
+        <v>12737.2286</v>
       </c>
       <c r="L7" t="n">
-        <v>452.106</v>
+        <v>1330.6504</v>
       </c>
       <c r="M7" t="n">
-        <v>62.503</v>
+        <v>173.8625</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56.2031</v>
+        <v>24.8362</v>
       </c>
       <c r="C8" t="n">
-        <v>108.6433</v>
+        <v>79.76519999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>14.8389</v>
+        <v>32.791</v>
       </c>
       <c r="E8" t="n">
-        <v>11.1853</v>
+        <v>4.9892</v>
       </c>
       <c r="F8" t="n">
-        <v>1491.1764</v>
+        <v>14645.6117</v>
       </c>
       <c r="G8" t="n">
-        <v>265.0009</v>
+        <v>220.8336</v>
       </c>
       <c r="H8" t="n">
-        <v>33.091</v>
+        <v>7.4537</v>
       </c>
       <c r="I8" t="n">
-        <v>2333.3165</v>
+        <v>16330.2248</v>
       </c>
       <c r="J8" t="n">
-        <v>288.9433</v>
+        <v>1129.1275</v>
       </c>
       <c r="K8" t="n">
-        <v>1823.5657</v>
+        <v>14896.2707</v>
       </c>
       <c r="L8" t="n">
-        <v>494.9119</v>
+        <v>1401.1631</v>
       </c>
       <c r="M8" t="n">
-        <v>64.2343</v>
+        <v>184.8167</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>55.7339</v>
+        <v>22.1703</v>
       </c>
       <c r="C9" t="n">
-        <v>110.4429</v>
+        <v>73.2208</v>
       </c>
       <c r="D9" t="n">
-        <v>19.859</v>
+        <v>35.1902</v>
       </c>
       <c r="E9" t="n">
-        <v>7.9075</v>
+        <v>4.5771</v>
       </c>
       <c r="F9" t="n">
-        <v>1984.2863</v>
+        <v>16788.4186</v>
       </c>
       <c r="G9" t="n">
-        <v>268.9807</v>
+        <v>186.3482</v>
       </c>
       <c r="H9" t="n">
-        <v>27.4265</v>
+        <v>5.5443</v>
       </c>
       <c r="I9" t="n">
-        <v>2876.2155</v>
+        <v>18515.1085</v>
       </c>
       <c r="J9" t="n">
-        <v>332.6915</v>
+        <v>1205.6639</v>
       </c>
       <c r="K9" t="n">
-        <v>2316.9084</v>
+        <v>17001.5142</v>
       </c>
       <c r="L9" t="n">
-        <v>539.4481</v>
+        <v>1478.4041</v>
       </c>
       <c r="M9" t="n">
-        <v>68.88720000000001</v>
+        <v>193.9751</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>57.97</v>
+        <v>20.3863</v>
       </c>
       <c r="C10" t="n">
-        <v>115.6789</v>
+        <v>68.5926</v>
       </c>
       <c r="D10" t="n">
-        <v>24.5015</v>
+        <v>39.5458</v>
       </c>
       <c r="E10" t="n">
-        <v>8.568</v>
+        <v>4.4829</v>
       </c>
       <c r="F10" t="n">
-        <v>2533.2823</v>
+        <v>18731.8021</v>
       </c>
       <c r="G10" t="n">
-        <v>280.6789</v>
+        <v>173.6159</v>
       </c>
       <c r="H10" t="n">
-        <v>23.3113</v>
+        <v>4.4818</v>
       </c>
       <c r="I10" t="n">
-        <v>3501.3924</v>
+        <v>20574.9339</v>
       </c>
       <c r="J10" t="n">
-        <v>384.1215</v>
+        <v>1323.249</v>
       </c>
       <c r="K10" t="n">
-        <v>2880.4992</v>
+        <v>18930.2872</v>
       </c>
       <c r="L10" t="n">
-        <v>596.3917</v>
+        <v>1605.1009</v>
       </c>
       <c r="M10" t="n">
-        <v>73.28</v>
+        <v>208.7775</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>59.963</v>
+        <v>18.9886</v>
       </c>
       <c r="C11" t="n">
-        <v>129.5862</v>
+        <v>63.0733</v>
       </c>
       <c r="D11" t="n">
-        <v>13.1749</v>
+        <v>44.7557</v>
       </c>
       <c r="E11" t="n">
-        <v>8.7218</v>
+        <v>4.2064</v>
       </c>
       <c r="F11" t="n">
-        <v>3436.2579</v>
+        <v>20527.2746</v>
       </c>
       <c r="G11" t="n">
-        <v>303.3916</v>
+        <v>160.1138</v>
       </c>
       <c r="H11" t="n">
-        <v>20.1171</v>
+        <v>3.4378</v>
       </c>
       <c r="I11" t="n">
-        <v>4574.9112</v>
+        <v>22508.9941</v>
       </c>
       <c r="J11" t="n">
-        <v>494.9691</v>
+        <v>1469.035</v>
       </c>
       <c r="K11" t="n">
-        <v>3808.3343</v>
+        <v>20710.5834</v>
       </c>
       <c r="L11" t="n">
-        <v>753.402</v>
+        <v>1753.655</v>
       </c>
       <c r="M11" t="n">
-        <v>108.7296</v>
+        <v>218.1089</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>61</v>
+        <v>17.6526</v>
       </c>
       <c r="C12" t="n">
-        <v>140.522</v>
+        <v>55.5813</v>
       </c>
       <c r="D12" t="n">
-        <v>17.6883</v>
+        <v>50.0972</v>
       </c>
       <c r="E12" t="n">
-        <v>9.3399</v>
+        <v>3.8204</v>
       </c>
       <c r="F12" t="n">
-        <v>4593.462</v>
+        <v>22165.1298</v>
       </c>
       <c r="G12" t="n">
-        <v>325.702</v>
+        <v>147.2087</v>
       </c>
       <c r="H12" t="n">
-        <v>16.7826</v>
+        <v>2.5962</v>
       </c>
       <c r="I12" t="n">
-        <v>5938.708</v>
+        <v>24291.1902</v>
       </c>
       <c r="J12" t="n">
-        <v>632.7717</v>
+        <v>1626.485</v>
       </c>
       <c r="K12" t="n">
-        <v>4989.5039</v>
+        <v>22333.8115</v>
       </c>
       <c r="L12" t="n">
-        <v>931.5158</v>
+        <v>1907.2815</v>
       </c>
       <c r="M12" t="n">
-        <v>141.4395</v>
+        <v>222.619</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>62.3368</v>
+        <v>16.6594</v>
       </c>
       <c r="C13" t="n">
-        <v>144.5205</v>
+        <v>47.4785</v>
       </c>
       <c r="D13" t="n">
-        <v>21.8985</v>
+        <v>55.4898</v>
       </c>
       <c r="E13" t="n">
-        <v>9.993600000000001</v>
+        <v>3.2367</v>
       </c>
       <c r="F13" t="n">
-        <v>5823.616</v>
+        <v>23919.1582</v>
       </c>
       <c r="G13" t="n">
-        <v>341.5165</v>
+        <v>135.1388</v>
       </c>
       <c r="H13" t="n">
-        <v>14.2351</v>
+        <v>1.8177</v>
       </c>
       <c r="I13" t="n">
-        <v>7326.7938</v>
+        <v>26152.0221</v>
       </c>
       <c r="J13" t="n">
-        <v>744.3934</v>
+        <v>1745.0726</v>
       </c>
       <c r="K13" t="n">
-        <v>6237.4629</v>
+        <v>24074.1931</v>
       </c>
       <c r="L13" t="n">
-        <v>1067.4324</v>
+        <v>2022.3392</v>
       </c>
       <c r="M13" t="n">
-        <v>164.2834</v>
+        <v>227.9704</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>55.4264</v>
-      </c>
-      <c r="C14" t="n">
-        <v>128.5123</v>
-      </c>
-      <c r="D14" t="n">
-        <v>25.0944</v>
-      </c>
-      <c r="E14" t="n">
-        <v>8.2584</v>
-      </c>
-      <c r="F14" t="n">
-        <v>7226.4828</v>
-      </c>
-      <c r="G14" t="n">
-        <v>347.7067</v>
-      </c>
-      <c r="H14" t="n">
-        <v>11.345</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>8838.6014</v>
-      </c>
-      <c r="J14" t="n">
-        <v>867.6409</v>
-      </c>
+        <v>27792.1065</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>7637.8743</v>
+        <v>25662.2053</v>
       </c>
       <c r="L14" t="n">
-        <v>1175.6327</v>
-      </c>
-      <c r="M14" t="n">
-        <v>168.1345</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>46.9486</v>
-      </c>
-      <c r="C15" t="n">
-        <v>111.8482</v>
-      </c>
-      <c r="D15" t="n">
-        <v>27.9548</v>
-      </c>
-      <c r="E15" t="n">
-        <v>6.9476</v>
-      </c>
-      <c r="F15" t="n">
-        <v>8810.507</v>
-      </c>
-      <c r="G15" t="n">
-        <v>333.8313</v>
-      </c>
-      <c r="H15" t="n">
-        <v>10.5198</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10501.6827</v>
-      </c>
-      <c r="J15" t="n">
-        <v>978.7336</v>
-      </c>
-      <c r="K15" t="n">
-        <v>9198.2345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1275.4934</v>
-      </c>
-      <c r="M15" t="n">
-        <v>174.3918</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>42.1036</v>
-      </c>
-      <c r="C16" t="n">
-        <v>104.9025</v>
-      </c>
-      <c r="D16" t="n">
-        <v>41.1996</v>
-      </c>
-      <c r="E16" t="n">
-        <v>7.7026</v>
-      </c>
-      <c r="F16" t="n">
-        <v>10590.7534</v>
-      </c>
-      <c r="G16" t="n">
-        <v>304.8255</v>
-      </c>
-      <c r="H16" t="n">
-        <v>14.5937</v>
-      </c>
-      <c r="I16" t="n">
-        <v>12339.3597</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1050.6024</v>
-      </c>
-      <c r="K16" t="n">
-        <v>10945.3851</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1352.775</v>
-      </c>
-      <c r="M16" t="n">
-        <v>182.6764</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>28.8896</v>
-      </c>
-      <c r="C17" t="n">
-        <v>86.61669999999999</v>
-      </c>
-      <c r="D17" t="n">
-        <v>31.2247</v>
-      </c>
-      <c r="E17" t="n">
-        <v>8.267300000000001</v>
-      </c>
-      <c r="F17" t="n">
-        <v>12432.2579</v>
-      </c>
-      <c r="G17" t="n">
-        <v>267.8138</v>
-      </c>
-      <c r="H17" t="n">
-        <v>9.4687</v>
-      </c>
-      <c r="I17" t="n">
-        <v>14099.1037</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1060.7025</v>
-      </c>
-      <c r="K17" t="n">
-        <v>12737.2286</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1330.6504</v>
-      </c>
-      <c r="M17" t="n">
-        <v>173.8625</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>24.8362</v>
-      </c>
-      <c r="C18" t="n">
-        <v>79.76519999999999</v>
-      </c>
-      <c r="D18" t="n">
-        <v>32.791</v>
-      </c>
-      <c r="E18" t="n">
-        <v>4.9892</v>
-      </c>
-      <c r="F18" t="n">
-        <v>14645.6117</v>
-      </c>
-      <c r="G18" t="n">
-        <v>220.8336</v>
-      </c>
-      <c r="H18" t="n">
-        <v>7.4537</v>
-      </c>
-      <c r="I18" t="n">
-        <v>16330.2248</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1129.1275</v>
-      </c>
-      <c r="K18" t="n">
-        <v>14896.2707</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1401.1631</v>
-      </c>
-      <c r="M18" t="n">
-        <v>184.8167</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>22.1703</v>
-      </c>
-      <c r="C19" t="n">
-        <v>73.2208</v>
-      </c>
-      <c r="D19" t="n">
-        <v>35.1902</v>
-      </c>
-      <c r="E19" t="n">
-        <v>4.5771</v>
-      </c>
-      <c r="F19" t="n">
-        <v>16788.4186</v>
-      </c>
-      <c r="G19" t="n">
-        <v>186.3482</v>
-      </c>
-      <c r="H19" t="n">
-        <v>5.5443</v>
-      </c>
-      <c r="I19" t="n">
-        <v>18515.1085</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1205.6639</v>
-      </c>
-      <c r="K19" t="n">
-        <v>17001.5142</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1478.4041</v>
-      </c>
-      <c r="M19" t="n">
-        <v>193.9751</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>20.3863</v>
-      </c>
-      <c r="C20" t="n">
-        <v>68.5926</v>
-      </c>
-      <c r="D20" t="n">
-        <v>39.5458</v>
-      </c>
-      <c r="E20" t="n">
-        <v>4.4829</v>
-      </c>
-      <c r="F20" t="n">
-        <v>18731.8021</v>
-      </c>
-      <c r="G20" t="n">
-        <v>173.6159</v>
-      </c>
-      <c r="H20" t="n">
-        <v>4.4818</v>
-      </c>
-      <c r="I20" t="n">
-        <v>20574.9339</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1323.249</v>
-      </c>
-      <c r="K20" t="n">
-        <v>18930.2872</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1605.1009</v>
-      </c>
-      <c r="M20" t="n">
-        <v>208.7775</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>18.9886</v>
-      </c>
-      <c r="C21" t="n">
-        <v>63.0733</v>
-      </c>
-      <c r="D21" t="n">
-        <v>44.7557</v>
-      </c>
-      <c r="E21" t="n">
-        <v>4.2064</v>
-      </c>
-      <c r="F21" t="n">
-        <v>20527.2746</v>
-      </c>
-      <c r="G21" t="n">
-        <v>160.1138</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3.4378</v>
-      </c>
-      <c r="I21" t="n">
-        <v>22508.9941</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1469.035</v>
-      </c>
-      <c r="K21" t="n">
-        <v>20710.5834</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1753.655</v>
-      </c>
-      <c r="M21" t="n">
-        <v>218.1089</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>17.6526</v>
-      </c>
-      <c r="C22" t="n">
-        <v>55.5813</v>
-      </c>
-      <c r="D22" t="n">
-        <v>50.0972</v>
-      </c>
-      <c r="E22" t="n">
-        <v>3.8204</v>
-      </c>
-      <c r="F22" t="n">
-        <v>22165.1298</v>
-      </c>
-      <c r="G22" t="n">
-        <v>147.2087</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2.5962</v>
-      </c>
-      <c r="I22" t="n">
-        <v>24291.1902</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1626.485</v>
-      </c>
-      <c r="K22" t="n">
-        <v>22333.8115</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1907.2815</v>
-      </c>
-      <c r="M22" t="n">
-        <v>222.619</v>
-      </c>
+        <v>2072.2621</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
